--- a/results/llm_with_ORI.xlsx
+++ b/results/llm_with_ORI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique\Google Drive\IA\PhD\v5\ontology-metrics-pretraining\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA60D12-E377-42B3-B952-1DD6082777EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006758D7-837F-4316-A4CC-FCEBD88B2DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>sentence_uniqueness_ratio</t>
-  </si>
-  <si>
     <t>line_uniqueness_ratio</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t>norm(vocab_specific_diversity)</t>
   </si>
   <si>
-    <t>norm(sentence_uniqueness_ratio)</t>
-  </si>
-  <si>
     <t>norm(line_uniqueness_ratio)</t>
   </si>
   <si>
@@ -65,6 +59,12 @@
   </si>
   <si>
     <t>model</t>
+  </si>
+  <si>
+    <t>logical_block_uniqueness_ratio</t>
+  </si>
+  <si>
+    <t>norm(logical_block_uniqueness_ratio)</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,60 +475,60 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
+        <v>0.49997461066974602</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.5185185185185167E-2</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.95454545454545447</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E2" s="2">
         <v>0.73844435507727413</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>16.113054285320469</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.49997461066974602</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3.5185185185185167E-2</v>
       </c>
       <c r="G2" s="2">
         <v>0.39759885705641701</v>
@@ -551,22 +551,22 @@
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
+        <v>0.63552886706197498</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5.2469135802469119E-2</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.98919753086419737</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E3" s="2">
         <v>0.87320550462697244</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>14.261421203304661</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.63552886706197498</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5.2469135802469119E-2</v>
       </c>
       <c r="G3" s="2">
         <v>0.50539676571118952</v>
@@ -589,22 +589,22 @@
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
+        <v>0.64020742336188896</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.7716049382716038E-2</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.99428104575163401</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E4" s="2">
         <v>0.88988864911560661</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <v>14.23078175349881</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.64020742336188896</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5.7716049382716038E-2</v>
       </c>
       <c r="G4" s="2">
         <v>0.50911733191159736</v>
